--- a/STV_reference_format.xlsx
+++ b/STV_reference_format.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="6855" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="6855" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="224">
   <si>
     <t>Feature to Test</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,6 +597,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>搜尋主題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增聯絡人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改聯絡人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CRUD for Contacts</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -604,6 +617,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>刪除備忘錄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定安全鎖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匯出檔案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顯示日曆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>TC-14</t>
   </si>
   <si>
@@ -712,6 +741,130 @@
   </si>
   <si>
     <t>顯示日曆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tase Case ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增主題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改主題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刪除主題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刪除聯絡人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增備忘錄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改備忘錄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除內容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改使用者名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除安全鎖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匯入檔案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顯示日曆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增主題成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改主題成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刪除主題成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列出搜尋結果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增日記成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改日記成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刪除日記成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匯出檔案成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日曆日期符合點選的日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原本輸入的日記內容全部清除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者名稱變更為後來輸入的名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新運行App時，會顯示出該匯入檔案的檔案內容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新運行App後，不會再要求輸入密碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新運行App後，會要求輸入密碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -942,7 +1095,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1003,6 +1156,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1075,19 +1231,55 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1372,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N156"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B13"/>
+    <sheetView topLeftCell="I146" workbookViewId="0">
+      <selection activeCell="L76" sqref="L76:N156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1610,157 +1802,157 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="28" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="28">
+      <c r="B30" s="29">
         <v>43221</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="E30" s="29" t="s">
+      <c r="E30" s="30" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="28">
+      <c r="B31" s="29">
         <v>43225</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="E31" s="30" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="26"/>
+      <c r="B32" s="27"/>
       <c r="E32" s="15"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="22" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="20"/>
-      <c r="C35" s="22" t="s">
+      <c r="B35" s="21"/>
+      <c r="C35" s="23" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="22" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="20"/>
-      <c r="C37" s="23" t="s">
+      <c r="B37" s="21"/>
+      <c r="C37" s="24" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="23" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="24" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="25" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="26" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="26" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="26" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="23" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="C48" s="32">
+      <c r="C48" s="33">
         <v>43221</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="23" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="C49" s="32">
+      <c r="C49" s="33">
         <v>43225</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="23" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2429,881 +2621,881 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9" style="33"/>
-    <col min="3" max="3" width="29.75" style="33" customWidth="1"/>
+    <col min="1" max="2" width="9" style="34"/>
+    <col min="3" max="3" width="29.75" style="34" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.375" style="33" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="33"/>
+    <col min="5" max="5" width="16.125" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.375" style="34" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" s="41" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="48" t="s">
+    <row r="3" spans="1:10" s="42" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="41" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="33.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="H4" s="38" t="s">
+      <c r="E4" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="H4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="36" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="C5" s="20"/>
-      <c r="D5" s="24" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37" t="s">
+      <c r="E5" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H5" s="40"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="38" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="C6" s="20"/>
-      <c r="D6" s="24" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37" t="s">
+      <c r="E6" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H6" s="40"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="C7" s="20"/>
-      <c r="D7" s="24" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="37" t="s">
+      <c r="E7" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="40"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="38" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="C8" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="24" t="s">
+      <c r="C8" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="37" t="s">
+      <c r="E8" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" s="40"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="C9" s="20"/>
-      <c r="D9" s="24" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="37" t="s">
+      <c r="E9" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="H9" s="40"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="C10" s="20"/>
-      <c r="D10" s="24" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="37" t="s">
+      <c r="E10" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="24" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="H11" s="39" t="s">
+      <c r="E11" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="H11" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="I11" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="37" t="s">
+      <c r="J11" s="38" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="D12" s="24" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="H12" s="39"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="37" t="s">
+      <c r="E12" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="H12" s="40"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="38" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="24" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="37" t="s">
+      <c r="E13" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="H13" s="40"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="24" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="37" t="s">
+      <c r="E14" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="H14" s="40"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="38" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="D15" s="24" t="s">
+      <c r="B15" s="44"/>
+      <c r="C15" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="37" t="s">
+      <c r="E15" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="H15" s="40"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="38" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="D16" s="24" t="s">
+      <c r="B16" s="44"/>
+      <c r="C16" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="H16" s="39" t="s">
+      <c r="E16" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="H16" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="36" t="s">
+      <c r="I16" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="37" t="s">
+      <c r="J16" s="38" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="44" t="s">
+      <c r="B17" s="44"/>
+      <c r="C17" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="37" t="s">
+      <c r="E17" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="H17" s="40"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="38" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="44" t="s">
+      <c r="B18" s="44"/>
+      <c r="C18" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="37" t="s">
+      <c r="E18" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H18" s="40"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44" t="s">
+      <c r="B19" s="44"/>
+      <c r="C19" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37" t="s">
+      <c r="E19" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="H19" s="40"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="38" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44" t="s">
+      <c r="B20" s="44"/>
+      <c r="C20" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="H20" s="39" t="s">
+      <c r="E20" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="H20" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="36" t="s">
+      <c r="I20" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="37" t="s">
+      <c r="J20" s="38" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44" t="s">
+      <c r="B21" s="44"/>
+      <c r="C21" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="37" t="s">
+      <c r="D21" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="H21" s="40"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="C22" s="42"/>
-      <c r="D22" s="33"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="37" t="s">
+      <c r="C22" s="43"/>
+      <c r="D22" s="34"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="C23" s="42"/>
-      <c r="D23" s="33"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="37" t="s">
+      <c r="C23" s="43"/>
+      <c r="D23" s="34"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="38" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="D24" s="33"/>
-      <c r="H24" s="39" t="s">
+      <c r="D24" s="34"/>
+      <c r="H24" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="I24" s="36" t="s">
+      <c r="I24" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="37" t="s">
+      <c r="J24" s="38" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="D25" s="33"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="37" t="s">
+      <c r="D25" s="34"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="D26" s="33"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="37" t="s">
+      <c r="D26" s="34"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="38" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="D27" s="33"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="37" t="s">
+      <c r="D27" s="34"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="38" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="D28" s="33"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="37" t="s">
+      <c r="D28" s="34"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="38" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="D29" s="33"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="37" t="s">
+      <c r="D29" s="34"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="D30" s="33"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="37" t="s">
+      <c r="D30" s="34"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="D31" s="33"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="37" t="s">
+      <c r="D31" s="34"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="D32" s="33"/>
-      <c r="H32" s="39" t="s">
+      <c r="D32" s="34"/>
+      <c r="H32" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="I32" s="36" t="s">
+      <c r="I32" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="J32" s="37" t="s">
+      <c r="J32" s="38" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="4:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="D33" s="33"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="37" t="s">
+      <c r="D33" s="34"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="38" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="4:10" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="D34" s="33"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="37" t="s">
+      <c r="D34" s="34"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="38" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="4:10" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="D35" s="33"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="37" t="s">
+      <c r="D35" s="34"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="38" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="36" spans="4:10" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="D36" s="33"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="37" t="s">
+      <c r="D36" s="34"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="38" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="37" spans="4:10" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="D37" s="33"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="37" t="s">
+      <c r="D37" s="34"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="38" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="38" spans="4:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="D38" s="33"/>
-      <c r="H38" s="39" t="s">
+      <c r="D38" s="34"/>
+      <c r="H38" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="I38" s="36" t="s">
+      <c r="I38" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="J38" s="37" t="s">
+      <c r="J38" s="38" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="4:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="D39" s="33"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="37" t="s">
+      <c r="D39" s="34"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="40" spans="4:10" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="D40" s="33"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="37" t="s">
+      <c r="D40" s="34"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="41" spans="4:10" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="D41" s="33"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="37" t="s">
+      <c r="D41" s="34"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="38" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="42" spans="4:10" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="D42" s="33"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="37" t="s">
+      <c r="D42" s="34"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="38" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="43" spans="4:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="D43" s="33"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="37" t="s">
+      <c r="D43" s="34"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="38" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="44" spans="4:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="D44" s="33"/>
-      <c r="H44" s="39" t="s">
+      <c r="D44" s="34"/>
+      <c r="H44" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="I44" s="36" t="s">
+      <c r="I44" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="J44" s="37" t="s">
+      <c r="J44" s="38" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="4:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="D45" s="33"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="37" t="s">
+      <c r="D45" s="34"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="38" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="46" spans="4:10" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="D46" s="33"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="37" t="s">
+      <c r="D46" s="34"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="38" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="47" spans="4:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="D47" s="33"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="37" t="s">
+      <c r="D47" s="34"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="48" spans="4:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="D48" s="33"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="37" t="s">
+      <c r="D48" s="34"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="38" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="49" spans="4:10" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="D49" s="33"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="37" t="s">
+      <c r="D49" s="34"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="38" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="50" spans="4:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="D50" s="33"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="37" t="s">
+      <c r="D50" s="34"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="38" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="51" spans="4:10" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="D51" s="33"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="37" t="s">
+      <c r="D51" s="34"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="38" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="52" spans="4:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="D52" s="33"/>
-      <c r="H52" s="39" t="s">
+      <c r="D52" s="34"/>
+      <c r="H52" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="I52" s="36" t="s">
+      <c r="I52" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="J52" s="37" t="s">
+      <c r="J52" s="38" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="4:10" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="D53" s="33"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="37" t="s">
+      <c r="D53" s="34"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="38" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="54" spans="4:10" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="D54" s="33"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="37" t="s">
+      <c r="D54" s="34"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="38" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="55" spans="4:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="D55" s="33"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="37" t="s">
+      <c r="D55" s="34"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="38" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="56" spans="4:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="D56" s="33"/>
-      <c r="H56" s="39" t="s">
+      <c r="D56" s="34"/>
+      <c r="H56" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="I56" s="36" t="s">
+      <c r="I56" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="J56" s="37" t="s">
+      <c r="J56" s="38" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="57" spans="4:10" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="D57" s="33"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="37" t="s">
+      <c r="D57" s="34"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="38" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="58" spans="4:10" ht="66" x14ac:dyDescent="0.25">
-      <c r="D58" s="33"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="37" t="s">
+      <c r="D58" s="34"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="38" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="59" spans="4:10" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="D59" s="33"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="37" t="s">
+      <c r="D59" s="34"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="38" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="60" spans="4:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="D60" s="33"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="37" t="s">
+      <c r="D60" s="34"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="38" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="61" spans="4:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="D61" s="33"/>
-      <c r="H61" s="39" t="s">
+      <c r="D61" s="34"/>
+      <c r="H61" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="I61" s="36" t="s">
+      <c r="I61" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="J61" s="37" t="s">
+      <c r="J61" s="38" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="62" spans="4:10" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="D62" s="33"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="37" t="s">
+      <c r="D62" s="34"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="38" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="63" spans="4:10" ht="66" x14ac:dyDescent="0.25">
-      <c r="D63" s="33"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="37" t="s">
+      <c r="D63" s="34"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="38" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="64" spans="4:10" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="D64" s="33"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="37" t="s">
+      <c r="D64" s="34"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="38" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="65" spans="4:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="D65" s="33"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="37" t="s">
+      <c r="D65" s="34"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="66" spans="4:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="D66" s="33"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="37" t="s">
+      <c r="D66" s="34"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="38" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="67" spans="4:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="D67" s="33"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="37" t="s">
+      <c r="D67" s="34"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="38" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="68" spans="4:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="D68" s="33"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="37" t="s">
+      <c r="D68" s="34"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="38" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="69" spans="4:10" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="D69" s="33"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="37" t="s">
+      <c r="D69" s="34"/>
+      <c r="H69" s="40"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="38" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="70" spans="4:10" ht="66" x14ac:dyDescent="0.25">
-      <c r="D70" s="33"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="36"/>
-      <c r="J70" s="37" t="s">
+      <c r="D70" s="34"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="38" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="71" spans="4:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="D71" s="33"/>
-      <c r="H71" s="39"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="37" t="s">
+      <c r="D71" s="34"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="38" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="72" spans="4:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="D72" s="33"/>
-      <c r="H72" s="39" t="s">
+      <c r="D72" s="34"/>
+      <c r="H72" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="I72" s="36" t="s">
+      <c r="I72" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="J72" s="37" t="s">
+      <c r="J72" s="38" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="73" spans="4:10" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="D73" s="33"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="37" t="s">
+      <c r="D73" s="34"/>
+      <c r="H73" s="40"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="38" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="74" spans="4:10" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="D74" s="33"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="37" t="s">
+      <c r="D74" s="34"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="38" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="75" spans="4:10" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="D75" s="33"/>
-      <c r="H75" s="39"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="37" t="s">
+      <c r="D75" s="34"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="38" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="76" spans="4:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="D76" s="33"/>
-      <c r="H76" s="39"/>
-      <c r="I76" s="36"/>
-      <c r="J76" s="37" t="s">
+      <c r="D76" s="34"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="38" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="77" spans="4:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="D77" s="33"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="36"/>
-      <c r="J77" s="37" t="s">
+      <c r="D77" s="34"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="37"/>
+      <c r="J77" s="38" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="78" spans="4:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="D78" s="33"/>
-      <c r="H78" s="39" t="s">
+      <c r="D78" s="34"/>
+      <c r="H78" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="I78" s="36" t="s">
+      <c r="I78" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="J78" s="37" t="s">
+      <c r="J78" s="38" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="79" spans="4:10" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="D79" s="33"/>
-      <c r="H79" s="39"/>
-      <c r="I79" s="36"/>
-      <c r="J79" s="37" t="s">
+      <c r="D79" s="34"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="38" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="80" spans="4:10" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="D80" s="33"/>
-      <c r="H80" s="39"/>
-      <c r="I80" s="36"/>
-      <c r="J80" s="37" t="s">
+      <c r="D80" s="34"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="37"/>
+      <c r="J80" s="38" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="81" spans="4:10" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="D81" s="33"/>
-      <c r="H81" s="39"/>
-      <c r="I81" s="36"/>
-      <c r="J81" s="37" t="s">
+      <c r="D81" s="34"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="37"/>
+      <c r="J81" s="38" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="82" spans="4:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="D82" s="33"/>
-      <c r="H82" s="39"/>
-      <c r="I82" s="36"/>
-      <c r="J82" s="37" t="s">
+      <c r="D82" s="34"/>
+      <c r="H82" s="40"/>
+      <c r="I82" s="37"/>
+      <c r="J82" s="38" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="83" spans="4:10" ht="33" x14ac:dyDescent="0.25">
-      <c r="D83" s="33"/>
-      <c r="H83" s="39"/>
-      <c r="I83" s="36"/>
-      <c r="J83" s="37" t="s">
+      <c r="D83" s="34"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="38" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3342,4 +3534,572 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:I39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C39" sqref="A25:C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.75" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5" style="20" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="55.125" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="58" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="52"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="52"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="52"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="52"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G11" s="52"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="G12" s="52"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" s="52"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="G16" s="52"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" s="52"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="G19" s="52"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="52"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G21" s="52"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G22" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="52"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="G25" s="52"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="G26" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="G27" s="52"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="G28" s="52"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="G29" s="52"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="55" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" s="55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="G32" s="52"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="G33" s="52"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="G34" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="I34" s="55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="G35" s="52"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="G36" s="52"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="G36"/>
+    <mergeCell ref="H36"/>
+    <mergeCell ref="G32"/>
+    <mergeCell ref="H32"/>
+    <mergeCell ref="G33"/>
+    <mergeCell ref="H33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G29"/>
+    <mergeCell ref="H29"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="G28"/>
+    <mergeCell ref="H28"/>
+    <mergeCell ref="G6:G12"/>
+    <mergeCell ref="H6:H12"/>
+    <mergeCell ref="G13:G17"/>
+    <mergeCell ref="H13:H17"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H21"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>